--- a/xlsx/殖民者_intext.xlsx
+++ b/xlsx/殖民者_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="718">
   <si>
     <t>殖民者</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E8%B3%87%E6%BA%90</t>
   </si>
   <si>
-    <t>自然資源</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_殖民者</t>
+    <t>自然资源</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_殖民者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>語言</t>
+    <t>语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
@@ -65,25 +65,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>帝國主義</t>
+    <t>帝国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>種族主義</t>
+    <t>种族主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%BD%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>偽科學</t>
+    <t>伪科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%81%94%E7%88%BE%E6%96%87%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會達爾文主義</t>
+    <t>社会达尔文主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%A8%E6%9C%9D</t>
@@ -95,25 +95,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>蒙古帝國</t>
+    <t>蒙古帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>亞歷山大帝國</t>
+    <t>亚历山大帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>羅馬帝國</t>
+    <t>罗马帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%82%E5%9C%96%E6%9B%BC%E5%9C%9F%E8%80%B3%E5%85%B6</t>
   </si>
   <si>
-    <t>鄂圖曼土耳其</t>
+    <t>鄂图曼土耳其</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%AE%96%E6%B0%91%E5%9C%B0%E5%8C%96</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B</t>
   </si>
   <si>
-    <t>獨立</t>
+    <t>独立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
@@ -149,31 +149,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E4%BA%9E</t>
   </si>
   <si>
-    <t>東南亞</t>
+    <t>东南亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B1%AC%E6%9D%B1%E9%9D%9E</t>
   </si>
   <si>
-    <t>德屬東非</t>
+    <t>德属东非</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E5%88%A9%E5%9E%82%E4%BA%9E</t>
   </si>
   <si>
-    <t>厄利垂亞</t>
+    <t>厄利垂亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>索馬利亞</t>
+    <t>索马利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>利比亞</t>
+    <t>利比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E6%84%8F%E5%A4%A7%E5%88%A9%E5%9F%83%E5%A1%9E%E4%BF%84%E6%AF%94%E4%BA%9A%E6%88%98%E4%BA%89</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E7%BE%A9%E5%A4%A7%E5%88%A9%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>第二次義大利衣索比亞戰爭</t>
+    <t>第二次义大利衣索比亚战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%AF%94%E8%A5%BF%E5%B0%BC%E4%BA%9A</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%A1%9E%E4%BF%84%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>埃塞俄比亞</t>
+    <t>埃塞俄比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E6%AE%96%E6%B0%91%E5%B8%9D%E5%9B%BD</t>
@@ -209,49 +209,49 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E5%8C%96</t>
   </si>
   <si>
-    <t>工業化</t>
+    <t>工业化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%B8%9D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新帝國主義</t>
+    <t>新帝国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第一次世界大戰</t>
+    <t>第一次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E7%9B%9F%E5%9C%8B_(%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0)</t>
   </si>
   <si>
-    <t>同盟國 (第一次世界大戰)</t>
+    <t>同盟国 (第一次世界大战)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>海外領地</t>
+    <t>海外领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%94%E7%B4%84%E5%9C%8B</t>
   </si>
   <si>
-    <t>協約國</t>
+    <t>协约国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%81%AF%E7%9B%9F%E8%A8%97%E7%AE%A1%E5%9C%B0</t>
   </si>
   <si>
-    <t>國際聯盟託管地</t>
+    <t>国际联盟讬管地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E4%B8%81%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -263,13 +263,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9F%83%E8%98%87%E4%B8%B9</t>
   </si>
   <si>
-    <t>英埃蘇丹</t>
+    <t>英埃苏丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A3%AE%E6%9D%BE%E5%B3%B6</t>
   </si>
   <si>
-    <t>阿森松島</t>
+    <t>阿森松岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
@@ -281,25 +281,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%8D%97%E6%A5%B5%E6%B4%B2%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>澳洲南極洲領地</t>
+    <t>澳洲南极洲领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%AA%95%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖誕島</t>
+    <t>圣诞岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%A7%91%E6%96%AF%EF%BC%88%E5%9F%BA%E6%9E%97%EF%BC%89%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>科科斯（基林）群島</t>
+    <t>科科斯（基林）群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E7%A6%8F%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>諾福克島</t>
+    <t>诺福克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A9%AC</t>
@@ -353,19 +353,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E9%A6%99%E6%B8%AF</t>
   </si>
   <si>
-    <t>英屬香港</t>
+    <t>英属香港</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E9%A6%AC%E4%BE%86%E4%BA%9E</t>
   </si>
   <si>
-    <t>英屬馬來亞</t>
+    <t>英属马来亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B4%A2%E9%A6%AC%E5%88%A9%E8%98%AD</t>
   </si>
   <si>
-    <t>英屬索馬利蘭</t>
+    <t>英属索马利兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%8E%B1</t>
@@ -389,19 +389,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E8%98%AD</t>
   </si>
   <si>
-    <t>錫蘭</t>
+    <t>锡兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%85%8B%E7%BE%85%E6%8F%90%E5%88%A9%E8%88%87%E5%BE%B7%E5%87%B1%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞克羅提利與德凱利亞</t>
+    <t>亚克罗提利与德凯利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
@@ -419,13 +419,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%BF%9F</t>
   </si>
   <si>
-    <t>斐濟</t>
+    <t>斐济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>甘比亞</t>
+    <t>甘比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%87%8C%E5%B7%B4%E6%96%AF</t>
@@ -443,13 +443,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E9%BB%83%E9%87%91%E6%B5%B7%E5%B2%B8</t>
   </si>
   <si>
-    <t>英屬黃金海岸</t>
+    <t>英属黄金海岸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8D%B0%E5%BA%A6%E8%AB%B8%E7%9C%81</t>
   </si>
   <si>
-    <t>英屬印度諸省</t>
+    <t>英属印度诸省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
@@ -467,19 +467,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>愛爾蘭</t>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0</t>
   </si>
   <si>
-    <t>牙買加</t>
+    <t>牙买加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E4%BA%9E</t>
   </si>
   <si>
-    <t>肯亞</t>
+    <t>肯亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96</t>
@@ -491,13 +491,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%8A%AC%E8%98%AD%E8%87%AA%E6%B2%BB%E9%A0%98</t>
   </si>
   <si>
-    <t>紐芬蘭自治領</t>
+    <t>纽芬兰自治领</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>紐西蘭</t>
+    <t>纽西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E5%85%8B%E7%BE%A4%E5%B2%9B</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%9F%83</t>
   </si>
   <si>
-    <t>紐埃</t>
+    <t>纽埃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E5%B1%9E%E5%9C%B0</t>
@@ -521,31 +521,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%85%8B%E5%8B%9E</t>
   </si>
   <si>
-    <t>托克勞</t>
+    <t>托克劳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A9%86%E7%BE%85%E6%B4%B2</t>
   </si>
   <si>
-    <t>北婆羅洲</t>
+    <t>北婆罗洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%85%E5%BE%B7%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>北羅德西亞</t>
+    <t>北罗德西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>南阿拉伯聯邦</t>
+    <t>南阿拉伯联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9A</t>
@@ -563,13 +563,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%85%E5%AD%90%E5%B1%B1%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>獅子山共和國</t>
+    <t>狮子山共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%85%E5%BE%B7%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>南羅德西亞</t>
+    <t>南罗德西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B5%AB%E5%8B%92%E6%8B%BF%E5%B2%9B</t>
@@ -581,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%B9%B2%E8%BE%BE</t>
@@ -593,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>南非聯邦</t>
+    <t>南非联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -605,9 +605,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%9E%E9%A6%99%E6%B8%AF</t>
   </si>
   <si>
-    <t>英属香港</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A</t>
   </si>
   <si>
@@ -629,13 +626,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>法屬圭亞那</t>
+    <t>法属圭亚那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%B5%A4%E9%81%93%E9%9D%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>法屬赤道非洲</t>
+    <t>法属赤道非洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
@@ -653,7 +650,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%89%9B%E6%9E%9C</t>
   </si>
   <si>
-    <t>法屬剛果</t>
+    <t>法属刚果</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%93%AC</t>
@@ -665,7 +662,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%8D%B0%E5%BA%A6</t>
   </si>
   <si>
-    <t>法屬印度</t>
+    <t>法属印度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%9C%B0%E6%B2%BB%E9%87%8C</t>
@@ -677,7 +674,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%BE%B7%E8%A8%A5%E6%A0%BC%E7%88%BE</t>
   </si>
   <si>
-    <t>金德訥格爾</t>
+    <t>金德讷格尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E5%88%A9%E5%BC%80%E5%B0%94</t>
@@ -701,13 +698,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%8D%B0%E5%BA%A6%E6%94%AF%E9%82%A3</t>
   </si>
   <si>
-    <t>法屬印度支那</t>
+    <t>法属印度支那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%8D%97%E4%BF%9D%E8%AD%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>安南保護國</t>
+    <t>安南保护国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8</t>
@@ -731,19 +728,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC_(%E8%B6%8A%E5%8D%97)</t>
   </si>
   <si>
-    <t>東京 (越南)</t>
+    <t>东京 (越南)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>法屬玻里尼西亞</t>
+    <t>法属玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E7%B4%A2%E9%A6%AC%E5%88%A9%E8%98%AD</t>
   </si>
   <si>
-    <t>法屬索馬利蘭</t>
+    <t>法属索马利兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%9E%E5%8D%97%E9%83%A8%E5%92%8C%E5%8D%97%E6%9E%81%E9%A2%86%E5%9C%B0</t>
@@ -755,7 +752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%A5%BF%E9%9D%9E</t>
   </si>
   <si>
-    <t>法屬西非</t>
+    <t>法属西非</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%AE%81</t>
@@ -785,13 +782,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%98%87%E4%B8%B9</t>
   </si>
   <si>
-    <t>法屬蘇丹</t>
+    <t>法属苏丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%85%E5%88%A9%E5%A1%94%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>茅利塔尼亞</t>
+    <t>茅利塔尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94</t>
@@ -803,7 +800,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%85%A7%E5%8A%A0%E7%88%BE</t>
   </si>
   <si>
-    <t>塞內加爾</t>
+    <t>塞内加尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E4%BC%8F%E5%A1%94</t>
@@ -821,13 +818,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E6%B3%B0%E5%8B%92%E7%B1%B3</t>
   </si>
   <si>
-    <t>聖巴泰勒米</t>
+    <t>圣巴泰勒米</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>法屬聖馬丁</t>
+    <t>法属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%99%E5%B0%BC%E6%97%BA</t>
@@ -845,25 +842,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8F%90%E5%B0%BC%E5%85%8B</t>
   </si>
   <si>
-    <t>馬提尼克</t>
+    <t>马提尼克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E6%91%A9%E6%B4%9B%E5%93%A5</t>
   </si>
   <si>
-    <t>法屬摩洛哥</t>
+    <t>法属摩洛哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>新喀里多尼亞</t>
+    <t>新喀里多尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%9A%AE%E8%80%B6%E8%88%87%E5%AF%86%E5%85%8B%E9%9A%86%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖皮耶與密克隆群島</t>
+    <t>圣皮耶与密克隆群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E6%B3%95%E7%A7%9F%E7%95%8C</t>
@@ -881,7 +878,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%8F%A3</t>
   </si>
   <si>
-    <t>漢口</t>
+    <t>汉口</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%B4%A5</t>
@@ -899,13 +896,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E9%82%A3%E6%9D%9C</t>
   </si>
   <si>
-    <t>萬那杜</t>
+    <t>万那杜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%88%A9%E6%96%AF%E5%92%8C%E5%AF%8C%E5%9C%96%E7%B4%8D</t>
   </si>
   <si>
-    <t>瓦利斯和富圖納</t>
+    <t>瓦利斯和富图纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A6%E9%9A%86</t>
@@ -923,7 +920,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B1%AC%E6%96%B0%E5%B9%BE%E5%85%A7%E4%BA%9E</t>
   </si>
   <si>
-    <t>德屬新幾內亞</t>
+    <t>德属新几内亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B1%9E%E8%A5%BF%E5%8D%97%E9%9D%9E%E6%B4%B2</t>
@@ -941,13 +938,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E4%BA%9E%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>馬里亞納群島</t>
+    <t>马里亚纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%B4%B9%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>馬紹爾群島</t>
+    <t>马绍尔群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%B4%A5%E5%BE%B7%E7%A7%9F%E7%95%8C</t>
@@ -959,7 +956,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E5%B3%B6</t>
   </si>
   <si>
-    <t>青島</t>
+    <t>青岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%AB%8B%E7%89%B9%E9%87%8C%E4%BA%9A</t>
@@ -971,7 +968,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%B1%AC%E7%B4%A2%E9%A6%AC%E5%88%A9%E8%98%AD</t>
   </si>
   <si>
-    <t>義屬索馬利蘭</t>
+    <t>义属索马利兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%B4%A5%E6%84%8F%E7%A7%9F%E7%95%8C</t>
@@ -995,7 +992,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
   </si>
   <si>
-    <t>阿魯巴</t>
+    <t>阿鲁巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A5%88</t>
@@ -1013,7 +1010,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E6%B2%99%E5%B7%B4</t>
   </si>
   <si>
-    <t>荷屬沙巴</t>
+    <t>荷属沙巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%B0%A4%E6%96%AF%E7%89%B9%E6%AD%87%E6%96%AF</t>
@@ -1025,7 +1022,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>荷屬聖馬丁</t>
+    <t>荷属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%9E%E5%9C%AD%E4%BA%9A%E9%82%A3</t>
@@ -1037,43 +1034,43 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E6%9D%B1%E5%8D%B0%E5%BA%A6</t>
   </si>
   <si>
-    <t>荷屬東印度</t>
+    <t>荷属东印度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E6%96%B0%E5%B9%BE%E5%85%A7%E4%BA%9E</t>
   </si>
   <si>
-    <t>荷屬新幾內亞</t>
+    <t>荷属新几内亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>荷屬臺灣</t>
+    <t>荷属台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%80%9F%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>亞速群島</t>
+    <t>亚速群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%B3%93%E9%81%94%E7%9C%81</t>
   </si>
   <si>
-    <t>卡賓達省</t>
+    <t>卡宾达省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89</t>
   </si>
   <si>
-    <t>馬德拉</t>
+    <t>马德拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E5%B1%AC%E8%A5%BF%E9%9D%9E</t>
   </si>
   <si>
-    <t>葡屬西非</t>
+    <t>葡属西非</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E5%BE%97%E8%A7%92</t>
@@ -1085,19 +1082,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E5%B1%AC%E5%B9%BE%E5%85%A7%E4%BA%9E</t>
   </si>
   <si>
-    <t>葡屬幾內亞</t>
+    <t>葡属几内亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E5%B1%AC%E6%9D%B1%E9%9D%9E</t>
   </si>
   <si>
-    <t>葡屬東非</t>
+    <t>葡属东非</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E5%B1%AC%E5%8D%B0%E5%BA%A6</t>
   </si>
   <si>
-    <t>葡屬印度</t>
+    <t>葡属印度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%9C%E9%98%BF%E9%82%A6</t>
@@ -1121,13 +1118,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E5%B1%AC%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>葡屬澳門</t>
+    <t>葡属澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E5%B1%AC%E5%B8%9D%E6%B1%B6</t>
   </si>
   <si>
-    <t>葡屬帝汶</t>
+    <t>葡属帝汶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E8%AF%BA%E6%9C%AC%E5%B2%9B</t>
@@ -1157,7 +1154,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%B1%AC%E6%91%A9%E6%B4%9B%E5%93%A5</t>
   </si>
   <si>
-    <t>西屬摩洛哥</t>
+    <t>西属摩洛哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
@@ -1175,31 +1172,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E5%B1%AC%E8%A5%BF%E5%8D%B0%E5%BA%A6%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>丹麥屬西印度群島</t>
+    <t>丹麦属西印度群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BE%85%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>法羅群島</t>
+    <t>法罗群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E8%98%AD</t>
   </si>
   <si>
-    <t>格陵蘭</t>
+    <t>格陵兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
+    <t>冰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%B1%AC%E5%89%9B%E6%9E%9C</t>
   </si>
   <si>
-    <t>比屬剛果</t>
+    <t>比属刚果</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%B4%A5%E6%AF%94%E7%A7%9F%E7%95%8C</t>
@@ -1217,7 +1214,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
@@ -1235,7 +1232,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -1253,7 +1250,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
@@ -1265,7 +1262,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E7%B1%B3%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>巴爾米拉環礁</t>
+    <t>巴尔米拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC</t>
@@ -1295,19 +1292,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E7%A5%BF%E8%98%87%E4%B8%B9%E5%9C%8B</t>
   </si>
   <si>
-    <t>蘇祿蘇丹國</t>
+    <t>苏禄苏丹国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%A0%BC%E9%81%94%E7%9C%81</t>
   </si>
   <si>
-    <t>巴格達省</t>
+    <t>巴格达省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A3%AB%E6%8B%89%E7%9C%81</t>
@@ -1331,13 +1328,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%BF%97</t>
   </si>
   <si>
-    <t>漢志</t>
+    <t>汉志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E5%BE%B7%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
-    <t>庫德斯坦</t>
+    <t>库德斯坦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9</t>
@@ -1367,13 +1364,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>葉門王國</t>
+    <t>叶门王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%98%AD_(%E8%8A%AC%E8%98%AD)</t>
   </si>
   <si>
-    <t>奧蘭 (芬蘭)</t>
+    <t>奥兰 (芬兰)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BD%97%E7%9A%84%E6%B5%B7%E8%81%94%E5%90%88%E5%85%AC%E5%9B%BD</t>
@@ -1385,13 +1382,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>芬蘭大公國</t>
+    <t>芬兰大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E6%9C%83%E8%AD%B0%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>波蘭會議王國</t>
+    <t>波兰会议王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9E%91%E9%9D%BC%E6%96%AF%E5%9D%A6%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1421,7 +1418,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E5%90%89%E6%96%AF%E5%9D%A6%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>達吉斯坦共和國</t>
+    <t>达吉斯坦共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%BF%E5%B7%B4%E6%96%AF</t>
@@ -1439,19 +1436,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%8F%A4%E4%BB%80%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>印古什共和國</t>
+    <t>印古什共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B7%B4%E7%88%BE%E9%81%94-%E5%B7%B4%E7%88%BE%E5%8D%A1%E7%88%BE%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>卡巴爾達-巴爾卡爾共和國</t>
+    <t>卡巴尔达-巴尔卡尔共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%E6%A2%85%E5%85%8B%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>卡爾梅克共和國</t>
+    <t>卡尔梅克共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E6%81%B0%E4%BC%8A-%E5%88%87%E5%B0%94%E5%85%8B%E6%96%AF%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1469,7 +1466,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E5%9F%83%E7%88%BE%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬里埃爾共和國</t>
+    <t>马里埃尔共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%B0%94%E5%A4%9A%E7%93%A6%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1481,7 +1478,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%96%A9%E6%8B%89%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>比薩拉比亞</t>
+    <t>比萨拉比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%BF%AA%E6%A0%BC%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1493,13 +1490,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E6%B3%B0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿爾泰共和國</t>
+    <t>阿尔泰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86</t>
@@ -1517,7 +1514,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%87%8C%E4%BA%9E%E7%89%B9%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>布里亞特共和國</t>
+    <t>布里亚特共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%9A%E7%A7%91%E5%A5%87%E8%87%AA%E6%B2%BB%E5%8C%BA</t>
@@ -1529,7 +1526,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%93%88%E6%8B%89%E5%9F%83%E7%B1%B3%E7%88%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>布哈拉埃米爾國</t>
+    <t>布哈拉埃米尔国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A</t>
@@ -1547,13 +1544,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E7%93%A6%E6%B1%97%E5%9C%8B</t>
   </si>
   <si>
-    <t>希瓦汗國</t>
+    <t>希瓦汗国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%A1%9E%E6%8F%90%E4%BA%9E</t>
   </si>
   <si>
-    <t>奧塞提亞</t>
+    <t>奥塞提亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%B4%A5%E4%BF%84%E7%A7%9F%E7%95%8C</t>
@@ -1565,7 +1562,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E6%9D%B1%E5%8C%97</t>
   </si>
   <si>
-    <t>外東北</t>
+    <t>外东北</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E8%A5%BF%E5%8C%97</t>
@@ -1583,7 +1580,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6%E6%96%AF%E5%9D%A6%E7%B8%BD%E7%9D%A3%E5%8D%80</t>
   </si>
   <si>
-    <t>土耳其斯坦總督區</t>
+    <t>土耳其斯坦总督区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E5%8A%AA%E4%B9%8C%E6%A2%81%E6%B5%B7</t>
@@ -1607,13 +1604,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%BA%E5%A4%AA%E5%BB%B3</t>
   </si>
   <si>
-    <t>樺太廳</t>
+    <t>桦太厅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%97%A5%E6%B2%BB%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>朝鮮日治時期</t>
+    <t>朝鲜日治时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B3%E4%B8%9C%E5%B7%9E</t>
@@ -1631,13 +1628,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%97%A5%E6%B2%BB%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>台灣日治時期</t>
+    <t>台湾日治时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%B4%8B%E5%BB%B3</t>
   </si>
   <si>
-    <t>南洋廳</t>
+    <t>南洋厅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%89%E7%90%83</t>
@@ -1649,19 +1646,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%88%A5%E7%B5%B1%E6%B2%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>特別統治主義</t>
+    <t>特别统治主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>大英帝國</t>
+    <t>大英帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%9C%B0%E5%BB%B6%E9%95%B7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>內地延長主義</t>
+    <t>内地延长主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%B0%94%E4%BA%BA</t>
@@ -1673,7 +1670,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%9D%B1%E4%BA%9E%E5%85%B1%E6%A6%AE%E5%9C%88</t>
   </si>
   <si>
-    <t>大東亞共榮圈</t>
+    <t>大东亚共荣圈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%B2%B9%E5%BE%B7%E5%9B%BD</t>
@@ -1685,13 +1682,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E8%BB%8D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>日本軍國主義</t>
+    <t>日本军国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%97%A5%E6%9C%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>大日本帝國</t>
+    <t>大日本帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BB%A1%E6%B4%B2%E5%9B%BD</t>
@@ -1721,43 +1718,43 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
+    <t>苏联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E8%98%87%E7%B6%AD%E5%9F%83%E8%81%AF%E9%82%A6%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>俄羅斯蘇維埃聯邦社會主義共和國</t>
+    <t>俄罗斯苏维埃联邦社会主义共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%96%A9%E5%85%8B%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
-    <t>哈薩克斯坦</t>
+    <t>哈萨克斯坦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
-    <t>烏茲別克斯坦</t>
+    <t>乌兹别克斯坦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%AB%E6%9B%BC%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
-    <t>土庫曼斯坦</t>
+    <t>土库曼斯坦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -1769,7 +1766,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E5%90%89%E6%96%AF%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
-    <t>吉爾吉斯斯坦</t>
+    <t>吉尔吉斯斯坦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BD%97%E7%9A%84%E6%B5%B7%E4%B8%89%E5%9B%BD</t>
@@ -1781,73 +1778,70 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD</t>
   </si>
   <si>
-    <t>芬蘭</t>
+    <t>芬兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%AC%E5%AD%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>冬季戰爭</t>
+    <t>冬季战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>納粹德國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%BE%B7%E4%BA%92%E4%B8%8D%E4%BE%B5%E7%8A%AF%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>蘇德互不侵犯條約</t>
+    <t>苏德互不侵犯条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E7%AC%AC%E4%BA%8C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>波蘭第二共和國</t>
+    <t>波兰第二共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%88%BE%E5%A4%9A%E7%93%A6</t>
   </si>
   <si>
-    <t>摩爾多瓦</t>
+    <t>摩尔多瓦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>冷戰</t>
+    <t>冷战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>東方集團</t>
+    <t>东方集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>保加利亞</t>
+    <t>保加利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%BE%B7</t>
   </si>
   <si>
-    <t>東德</t>
+    <t>东德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
@@ -1865,7 +1859,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%A2%E5%8A%9B%E7%AF%84%E5%9C%8D</t>
   </si>
   <si>
-    <t>勢力範圍</t>
+    <t>势力范围</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -1913,7 +1907,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B8%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>奴隸貿易</t>
+    <t>奴隶贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%AE%96%E6%B0%91%E5%8C%96</t>
@@ -1937,13 +1931,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B8%9D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>美帝國主義</t>
+    <t>美帝国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%B8%9D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>反帝國主義</t>
+    <t>反帝国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E8%AE%B8%E5%85%AC%E5%8F%B8</t>
@@ -1955,9 +1949,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
   </si>
   <si>
-    <t>冷战</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%B8%9D%E5%9B%BD</t>
   </si>
   <si>
@@ -2009,13 +2000,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E5%A4%A7%E5%B8%9D%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>最大帝國列表</t>
+    <t>最大帝国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E6%AE%96%E6%B0%91</t>
   </si>
   <si>
-    <t>亞洲殖民</t>
+    <t>亚洲殖民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%AD%E6%98%AD%E5%A4%A9%E5%91%BD</t>
@@ -2051,13 +2042,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AE%96%E6%B0%91%E5%9C%B0</t>
   </si>
   <si>
-    <t>美國殖民地</t>
+    <t>美国殖民地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>荷蘭帝國</t>
+    <t>荷兰帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%8C%88%E5%B8%9D%E5%9B%BD</t>
@@ -2075,31 +2066,28 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82%E6%AE%96%E6%B0%91%E5%9C%B0</t>
   </si>
   <si>
-    <t>比利時殖民地</t>
+    <t>比利时殖民地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E6%AE%96%E6%B0%91%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>法蘭西殖民帝國</t>
+    <t>法兰西殖民帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>葡萄牙帝國</t>
+    <t>葡萄牙帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%B8%9D%E5%9B%BD</t>
   </si>
   <si>
-    <t>大英帝国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E6%AE%96%E6%B0%91%E5%9C%B0</t>
   </si>
   <si>
-    <t>德國殖民地</t>
+    <t>德国殖民地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E5%B8%9D%E5%9B%BD</t>
@@ -2123,13 +2111,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>西班牙帝國</t>
+    <t>西班牙帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E6%AE%96%E6%B0%91%E5%9C%B0</t>
   </si>
   <si>
-    <t>丹麥殖民地</t>
+    <t>丹麦殖民地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -2147,7 +2135,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -2165,13 +2153,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E4%B8%BB%E4%B9%89</t>
@@ -5393,7 +5381,7 @@
         <v>195</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>112</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5419,10 +5407,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5448,10 +5436,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5477,10 +5465,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5506,10 +5494,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5535,10 +5523,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5564,10 +5552,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5593,10 +5581,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5622,10 +5610,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5651,10 +5639,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5680,10 +5668,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -5709,10 +5697,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" t="s">
         <v>217</v>
-      </c>
-      <c r="F110" t="s">
-        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5738,10 +5726,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>218</v>
+      </c>
+      <c r="F111" t="s">
         <v>219</v>
-      </c>
-      <c r="F111" t="s">
-        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5767,10 +5755,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
         <v>221</v>
-      </c>
-      <c r="F112" t="s">
-        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5796,10 +5784,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" t="s">
         <v>223</v>
-      </c>
-      <c r="F113" t="s">
-        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5825,10 +5813,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>224</v>
+      </c>
+      <c r="F114" t="s">
         <v>225</v>
-      </c>
-      <c r="F114" t="s">
-        <v>226</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5854,10 +5842,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" t="s">
         <v>227</v>
-      </c>
-      <c r="F115" t="s">
-        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5883,10 +5871,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>228</v>
+      </c>
+      <c r="F116" t="s">
         <v>229</v>
-      </c>
-      <c r="F116" t="s">
-        <v>230</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5912,10 +5900,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>230</v>
+      </c>
+      <c r="F117" t="s">
         <v>231</v>
-      </c>
-      <c r="F117" t="s">
-        <v>232</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5941,10 +5929,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" t="s">
         <v>233</v>
-      </c>
-      <c r="F118" t="s">
-        <v>234</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5970,10 +5958,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>234</v>
+      </c>
+      <c r="F119" t="s">
         <v>235</v>
-      </c>
-      <c r="F119" t="s">
-        <v>236</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5999,10 +5987,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>236</v>
+      </c>
+      <c r="F120" t="s">
         <v>237</v>
-      </c>
-      <c r="F120" t="s">
-        <v>238</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6028,10 +6016,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>238</v>
+      </c>
+      <c r="F121" t="s">
         <v>239</v>
-      </c>
-      <c r="F121" t="s">
-        <v>240</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6057,10 +6045,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>240</v>
+      </c>
+      <c r="F122" t="s">
         <v>241</v>
-      </c>
-      <c r="F122" t="s">
-        <v>242</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6086,10 +6074,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>242</v>
+      </c>
+      <c r="F123" t="s">
         <v>243</v>
-      </c>
-      <c r="F123" t="s">
-        <v>244</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6115,10 +6103,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>244</v>
+      </c>
+      <c r="F124" t="s">
         <v>245</v>
-      </c>
-      <c r="F124" t="s">
-        <v>246</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6144,10 +6132,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>246</v>
+      </c>
+      <c r="F125" t="s">
         <v>247</v>
-      </c>
-      <c r="F125" t="s">
-        <v>248</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6173,10 +6161,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>248</v>
+      </c>
+      <c r="F126" t="s">
         <v>249</v>
-      </c>
-      <c r="F126" t="s">
-        <v>250</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6202,10 +6190,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>250</v>
+      </c>
+      <c r="F127" t="s">
         <v>251</v>
-      </c>
-      <c r="F127" t="s">
-        <v>252</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6231,10 +6219,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>252</v>
+      </c>
+      <c r="F128" t="s">
         <v>253</v>
-      </c>
-      <c r="F128" t="s">
-        <v>254</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6260,10 +6248,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>254</v>
+      </c>
+      <c r="F129" t="s">
         <v>255</v>
-      </c>
-      <c r="F129" t="s">
-        <v>256</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6289,10 +6277,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>256</v>
+      </c>
+      <c r="F130" t="s">
         <v>257</v>
-      </c>
-      <c r="F130" t="s">
-        <v>258</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6318,10 +6306,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>258</v>
+      </c>
+      <c r="F131" t="s">
         <v>259</v>
-      </c>
-      <c r="F131" t="s">
-        <v>260</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6347,10 +6335,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>260</v>
+      </c>
+      <c r="F132" t="s">
         <v>261</v>
-      </c>
-      <c r="F132" t="s">
-        <v>262</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6376,10 +6364,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>262</v>
+      </c>
+      <c r="F133" t="s">
         <v>263</v>
-      </c>
-      <c r="F133" t="s">
-        <v>264</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6405,10 +6393,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>264</v>
+      </c>
+      <c r="F134" t="s">
         <v>265</v>
-      </c>
-      <c r="F134" t="s">
-        <v>266</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6434,10 +6422,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>266</v>
+      </c>
+      <c r="F135" t="s">
         <v>267</v>
-      </c>
-      <c r="F135" t="s">
-        <v>268</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6463,10 +6451,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>268</v>
+      </c>
+      <c r="F136" t="s">
         <v>269</v>
-      </c>
-      <c r="F136" t="s">
-        <v>270</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6492,10 +6480,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>270</v>
+      </c>
+      <c r="F137" t="s">
         <v>271</v>
-      </c>
-      <c r="F137" t="s">
-        <v>272</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6521,10 +6509,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>272</v>
+      </c>
+      <c r="F138" t="s">
         <v>273</v>
-      </c>
-      <c r="F138" t="s">
-        <v>274</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6550,10 +6538,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>274</v>
+      </c>
+      <c r="F139" t="s">
         <v>275</v>
-      </c>
-      <c r="F139" t="s">
-        <v>276</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6579,10 +6567,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>276</v>
+      </c>
+      <c r="F140" t="s">
         <v>277</v>
-      </c>
-      <c r="F140" t="s">
-        <v>278</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6608,10 +6596,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>278</v>
+      </c>
+      <c r="F141" t="s">
         <v>279</v>
-      </c>
-      <c r="F141" t="s">
-        <v>280</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6637,10 +6625,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>280</v>
+      </c>
+      <c r="F142" t="s">
         <v>281</v>
-      </c>
-      <c r="F142" t="s">
-        <v>282</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6666,10 +6654,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>282</v>
+      </c>
+      <c r="F143" t="s">
         <v>283</v>
-      </c>
-      <c r="F143" t="s">
-        <v>284</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6695,10 +6683,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>284</v>
+      </c>
+      <c r="F144" t="s">
         <v>285</v>
-      </c>
-      <c r="F144" t="s">
-        <v>286</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6724,10 +6712,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>286</v>
+      </c>
+      <c r="F145" t="s">
         <v>287</v>
-      </c>
-      <c r="F145" t="s">
-        <v>288</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6753,10 +6741,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>288</v>
+      </c>
+      <c r="F146" t="s">
         <v>289</v>
-      </c>
-      <c r="F146" t="s">
-        <v>290</v>
       </c>
       <c r="G146" t="n">
         <v>9</v>
@@ -6782,10 +6770,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>290</v>
+      </c>
+      <c r="F147" t="s">
         <v>291</v>
-      </c>
-      <c r="F147" t="s">
-        <v>292</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6811,10 +6799,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>292</v>
+      </c>
+      <c r="F148" t="s">
         <v>293</v>
-      </c>
-      <c r="F148" t="s">
-        <v>294</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6840,10 +6828,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>294</v>
+      </c>
+      <c r="F149" t="s">
         <v>295</v>
-      </c>
-      <c r="F149" t="s">
-        <v>296</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6869,10 +6857,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>296</v>
+      </c>
+      <c r="F150" t="s">
         <v>297</v>
-      </c>
-      <c r="F150" t="s">
-        <v>298</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6898,10 +6886,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>298</v>
+      </c>
+      <c r="F151" t="s">
         <v>299</v>
-      </c>
-      <c r="F151" t="s">
-        <v>300</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6927,10 +6915,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>300</v>
+      </c>
+      <c r="F152" t="s">
         <v>301</v>
-      </c>
-      <c r="F152" t="s">
-        <v>302</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6956,10 +6944,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>302</v>
+      </c>
+      <c r="F153" t="s">
         <v>303</v>
-      </c>
-      <c r="F153" t="s">
-        <v>304</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6985,10 +6973,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>304</v>
+      </c>
+      <c r="F154" t="s">
         <v>305</v>
-      </c>
-      <c r="F154" t="s">
-        <v>306</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7014,10 +7002,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>306</v>
+      </c>
+      <c r="F155" t="s">
         <v>307</v>
-      </c>
-      <c r="F155" t="s">
-        <v>308</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7043,10 +7031,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>308</v>
+      </c>
+      <c r="F156" t="s">
         <v>309</v>
-      </c>
-      <c r="F156" t="s">
-        <v>310</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7072,10 +7060,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>310</v>
+      </c>
+      <c r="F157" t="s">
         <v>311</v>
-      </c>
-      <c r="F157" t="s">
-        <v>312</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7101,10 +7089,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>312</v>
+      </c>
+      <c r="F158" t="s">
         <v>313</v>
-      </c>
-      <c r="F158" t="s">
-        <v>314</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7130,10 +7118,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>314</v>
+      </c>
+      <c r="F159" t="s">
         <v>315</v>
-      </c>
-      <c r="F159" t="s">
-        <v>316</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7159,10 +7147,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>316</v>
+      </c>
+      <c r="F160" t="s">
         <v>317</v>
-      </c>
-      <c r="F160" t="s">
-        <v>318</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7188,10 +7176,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>318</v>
+      </c>
+      <c r="F161" t="s">
         <v>319</v>
-      </c>
-      <c r="F161" t="s">
-        <v>320</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7217,10 +7205,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>320</v>
+      </c>
+      <c r="F162" t="s">
         <v>321</v>
-      </c>
-      <c r="F162" t="s">
-        <v>322</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7246,10 +7234,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>322</v>
+      </c>
+      <c r="F163" t="s">
         <v>323</v>
-      </c>
-      <c r="F163" t="s">
-        <v>324</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7275,10 +7263,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>324</v>
+      </c>
+      <c r="F164" t="s">
         <v>325</v>
-      </c>
-      <c r="F164" t="s">
-        <v>326</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7304,10 +7292,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>326</v>
+      </c>
+      <c r="F165" t="s">
         <v>327</v>
-      </c>
-      <c r="F165" t="s">
-        <v>328</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7333,10 +7321,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>328</v>
+      </c>
+      <c r="F166" t="s">
         <v>329</v>
-      </c>
-      <c r="F166" t="s">
-        <v>330</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7362,10 +7350,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>330</v>
+      </c>
+      <c r="F167" t="s">
         <v>331</v>
-      </c>
-      <c r="F167" t="s">
-        <v>332</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7391,10 +7379,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>332</v>
+      </c>
+      <c r="F168" t="s">
         <v>333</v>
-      </c>
-      <c r="F168" t="s">
-        <v>334</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7420,10 +7408,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>334</v>
+      </c>
+      <c r="F169" t="s">
         <v>335</v>
-      </c>
-      <c r="F169" t="s">
-        <v>336</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7449,10 +7437,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>336</v>
+      </c>
+      <c r="F170" t="s">
         <v>337</v>
-      </c>
-      <c r="F170" t="s">
-        <v>338</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7478,10 +7466,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>338</v>
+      </c>
+      <c r="F171" t="s">
         <v>339</v>
-      </c>
-      <c r="F171" t="s">
-        <v>340</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7507,10 +7495,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>340</v>
+      </c>
+      <c r="F172" t="s">
         <v>341</v>
-      </c>
-      <c r="F172" t="s">
-        <v>342</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7536,10 +7524,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>342</v>
+      </c>
+      <c r="F173" t="s">
         <v>343</v>
-      </c>
-      <c r="F173" t="s">
-        <v>344</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7565,10 +7553,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>344</v>
+      </c>
+      <c r="F174" t="s">
         <v>345</v>
-      </c>
-      <c r="F174" t="s">
-        <v>346</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7594,10 +7582,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>346</v>
+      </c>
+      <c r="F175" t="s">
         <v>347</v>
-      </c>
-      <c r="F175" t="s">
-        <v>348</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -7623,10 +7611,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>348</v>
+      </c>
+      <c r="F176" t="s">
         <v>349</v>
-      </c>
-      <c r="F176" t="s">
-        <v>350</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7652,10 +7640,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>350</v>
+      </c>
+      <c r="F177" t="s">
         <v>351</v>
-      </c>
-      <c r="F177" t="s">
-        <v>352</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7681,10 +7669,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>352</v>
+      </c>
+      <c r="F178" t="s">
         <v>353</v>
-      </c>
-      <c r="F178" t="s">
-        <v>354</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7710,10 +7698,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>354</v>
+      </c>
+      <c r="F179" t="s">
         <v>355</v>
-      </c>
-      <c r="F179" t="s">
-        <v>356</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7739,10 +7727,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>356</v>
+      </c>
+      <c r="F180" t="s">
         <v>357</v>
-      </c>
-      <c r="F180" t="s">
-        <v>358</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7768,10 +7756,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>358</v>
+      </c>
+      <c r="F181" t="s">
         <v>359</v>
-      </c>
-      <c r="F181" t="s">
-        <v>360</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7797,10 +7785,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>360</v>
+      </c>
+      <c r="F182" t="s">
         <v>361</v>
-      </c>
-      <c r="F182" t="s">
-        <v>362</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7826,10 +7814,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>362</v>
+      </c>
+      <c r="F183" t="s">
         <v>363</v>
-      </c>
-      <c r="F183" t="s">
-        <v>364</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7855,10 +7843,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>364</v>
+      </c>
+      <c r="F184" t="s">
         <v>365</v>
-      </c>
-      <c r="F184" t="s">
-        <v>366</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7884,10 +7872,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>366</v>
+      </c>
+      <c r="F185" t="s">
         <v>367</v>
-      </c>
-      <c r="F185" t="s">
-        <v>368</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7913,10 +7901,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>368</v>
+      </c>
+      <c r="F186" t="s">
         <v>369</v>
-      </c>
-      <c r="F186" t="s">
-        <v>370</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7942,10 +7930,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>370</v>
+      </c>
+      <c r="F187" t="s">
         <v>371</v>
-      </c>
-      <c r="F187" t="s">
-        <v>372</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7971,10 +7959,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>372</v>
+      </c>
+      <c r="F188" t="s">
         <v>373</v>
-      </c>
-      <c r="F188" t="s">
-        <v>374</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8000,10 +7988,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>374</v>
+      </c>
+      <c r="F189" t="s">
         <v>375</v>
-      </c>
-      <c r="F189" t="s">
-        <v>376</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8029,10 +8017,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>376</v>
+      </c>
+      <c r="F190" t="s">
         <v>377</v>
-      </c>
-      <c r="F190" t="s">
-        <v>378</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8058,10 +8046,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>378</v>
+      </c>
+      <c r="F191" t="s">
         <v>379</v>
-      </c>
-      <c r="F191" t="s">
-        <v>380</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8087,10 +8075,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>380</v>
+      </c>
+      <c r="F192" t="s">
         <v>381</v>
-      </c>
-      <c r="F192" t="s">
-        <v>382</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8116,10 +8104,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>382</v>
+      </c>
+      <c r="F193" t="s">
         <v>383</v>
-      </c>
-      <c r="F193" t="s">
-        <v>384</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8145,10 +8133,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>384</v>
+      </c>
+      <c r="F194" t="s">
         <v>385</v>
-      </c>
-      <c r="F194" t="s">
-        <v>386</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8174,10 +8162,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>386</v>
+      </c>
+      <c r="F195" t="s">
         <v>387</v>
-      </c>
-      <c r="F195" t="s">
-        <v>388</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8203,10 +8191,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>388</v>
+      </c>
+      <c r="F196" t="s">
         <v>389</v>
-      </c>
-      <c r="F196" t="s">
-        <v>390</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8232,10 +8220,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>390</v>
+      </c>
+      <c r="F197" t="s">
         <v>391</v>
-      </c>
-      <c r="F197" t="s">
-        <v>392</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8261,10 +8249,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>392</v>
+      </c>
+      <c r="F198" t="s">
         <v>393</v>
-      </c>
-      <c r="F198" t="s">
-        <v>394</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8290,10 +8278,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>394</v>
+      </c>
+      <c r="F199" t="s">
         <v>395</v>
-      </c>
-      <c r="F199" t="s">
-        <v>396</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8319,10 +8307,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>396</v>
+      </c>
+      <c r="F200" t="s">
         <v>397</v>
-      </c>
-      <c r="F200" t="s">
-        <v>398</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8348,10 +8336,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>398</v>
+      </c>
+      <c r="F201" t="s">
         <v>399</v>
-      </c>
-      <c r="F201" t="s">
-        <v>400</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8377,10 +8365,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>400</v>
+      </c>
+      <c r="F202" t="s">
         <v>401</v>
-      </c>
-      <c r="F202" t="s">
-        <v>402</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8406,10 +8394,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>402</v>
+      </c>
+      <c r="F203" t="s">
         <v>403</v>
-      </c>
-      <c r="F203" t="s">
-        <v>404</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8435,10 +8423,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>404</v>
+      </c>
+      <c r="F204" t="s">
         <v>405</v>
-      </c>
-      <c r="F204" t="s">
-        <v>406</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8464,10 +8452,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>406</v>
+      </c>
+      <c r="F205" t="s">
         <v>407</v>
-      </c>
-      <c r="F205" t="s">
-        <v>408</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8493,10 +8481,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>408</v>
+      </c>
+      <c r="F206" t="s">
         <v>409</v>
-      </c>
-      <c r="F206" t="s">
-        <v>410</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -8522,10 +8510,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>410</v>
+      </c>
+      <c r="F207" t="s">
         <v>411</v>
-      </c>
-      <c r="F207" t="s">
-        <v>412</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8551,10 +8539,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>412</v>
+      </c>
+      <c r="F208" t="s">
         <v>413</v>
-      </c>
-      <c r="F208" t="s">
-        <v>414</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8580,10 +8568,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>414</v>
+      </c>
+      <c r="F209" t="s">
         <v>415</v>
-      </c>
-      <c r="F209" t="s">
-        <v>416</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8609,10 +8597,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>416</v>
+      </c>
+      <c r="F210" t="s">
         <v>417</v>
-      </c>
-      <c r="F210" t="s">
-        <v>418</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8638,10 +8626,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>418</v>
+      </c>
+      <c r="F211" t="s">
         <v>419</v>
-      </c>
-      <c r="F211" t="s">
-        <v>420</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8667,10 +8655,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>420</v>
+      </c>
+      <c r="F212" t="s">
         <v>421</v>
-      </c>
-      <c r="F212" t="s">
-        <v>422</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8696,10 +8684,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>422</v>
+      </c>
+      <c r="F213" t="s">
         <v>423</v>
-      </c>
-      <c r="F213" t="s">
-        <v>424</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8725,10 +8713,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>424</v>
+      </c>
+      <c r="F214" t="s">
         <v>425</v>
-      </c>
-      <c r="F214" t="s">
-        <v>426</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8754,10 +8742,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>426</v>
+      </c>
+      <c r="F215" t="s">
         <v>427</v>
-      </c>
-      <c r="F215" t="s">
-        <v>428</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8783,10 +8771,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>428</v>
+      </c>
+      <c r="F216" t="s">
         <v>429</v>
-      </c>
-      <c r="F216" t="s">
-        <v>430</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8812,10 +8800,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>430</v>
+      </c>
+      <c r="F217" t="s">
         <v>431</v>
-      </c>
-      <c r="F217" t="s">
-        <v>432</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8841,10 +8829,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>432</v>
+      </c>
+      <c r="F218" t="s">
         <v>433</v>
-      </c>
-      <c r="F218" t="s">
-        <v>434</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8870,10 +8858,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>434</v>
+      </c>
+      <c r="F219" t="s">
         <v>435</v>
-      </c>
-      <c r="F219" t="s">
-        <v>436</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8899,10 +8887,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>436</v>
+      </c>
+      <c r="F220" t="s">
         <v>437</v>
-      </c>
-      <c r="F220" t="s">
-        <v>438</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8928,10 +8916,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>438</v>
+      </c>
+      <c r="F221" t="s">
         <v>439</v>
-      </c>
-      <c r="F221" t="s">
-        <v>440</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8957,10 +8945,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>440</v>
+      </c>
+      <c r="F222" t="s">
         <v>441</v>
-      </c>
-      <c r="F222" t="s">
-        <v>442</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8986,10 +8974,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>442</v>
+      </c>
+      <c r="F223" t="s">
         <v>443</v>
-      </c>
-      <c r="F223" t="s">
-        <v>444</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9015,10 +9003,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>444</v>
+      </c>
+      <c r="F224" t="s">
         <v>445</v>
-      </c>
-      <c r="F224" t="s">
-        <v>446</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9044,10 +9032,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>446</v>
+      </c>
+      <c r="F225" t="s">
         <v>447</v>
-      </c>
-      <c r="F225" t="s">
-        <v>448</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9073,10 +9061,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>448</v>
+      </c>
+      <c r="F226" t="s">
         <v>449</v>
-      </c>
-      <c r="F226" t="s">
-        <v>450</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9102,10 +9090,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>450</v>
+      </c>
+      <c r="F227" t="s">
         <v>451</v>
-      </c>
-      <c r="F227" t="s">
-        <v>452</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9131,10 +9119,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>452</v>
+      </c>
+      <c r="F228" t="s">
         <v>453</v>
-      </c>
-      <c r="F228" t="s">
-        <v>454</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9160,10 +9148,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>454</v>
+      </c>
+      <c r="F229" t="s">
         <v>455</v>
-      </c>
-      <c r="F229" t="s">
-        <v>456</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9189,10 +9177,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>456</v>
+      </c>
+      <c r="F230" t="s">
         <v>457</v>
-      </c>
-      <c r="F230" t="s">
-        <v>458</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9218,10 +9206,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>458</v>
+      </c>
+      <c r="F231" t="s">
         <v>459</v>
-      </c>
-      <c r="F231" t="s">
-        <v>460</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9247,10 +9235,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>460</v>
+      </c>
+      <c r="F232" t="s">
         <v>461</v>
-      </c>
-      <c r="F232" t="s">
-        <v>462</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9276,10 +9264,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>462</v>
+      </c>
+      <c r="F233" t="s">
         <v>463</v>
-      </c>
-      <c r="F233" t="s">
-        <v>464</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9305,10 +9293,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>464</v>
+      </c>
+      <c r="F234" t="s">
         <v>465</v>
-      </c>
-      <c r="F234" t="s">
-        <v>466</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9334,10 +9322,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>466</v>
+      </c>
+      <c r="F235" t="s">
         <v>467</v>
-      </c>
-      <c r="F235" t="s">
-        <v>468</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9363,10 +9351,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>468</v>
+      </c>
+      <c r="F236" t="s">
         <v>469</v>
-      </c>
-      <c r="F236" t="s">
-        <v>470</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9392,10 +9380,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>470</v>
+      </c>
+      <c r="F237" t="s">
         <v>471</v>
-      </c>
-      <c r="F237" t="s">
-        <v>472</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9421,10 +9409,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>472</v>
+      </c>
+      <c r="F238" t="s">
         <v>473</v>
-      </c>
-      <c r="F238" t="s">
-        <v>474</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9450,10 +9438,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>474</v>
+      </c>
+      <c r="F239" t="s">
         <v>475</v>
-      </c>
-      <c r="F239" t="s">
-        <v>476</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9479,10 +9467,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>476</v>
+      </c>
+      <c r="F240" t="s">
         <v>477</v>
-      </c>
-      <c r="F240" t="s">
-        <v>478</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9508,10 +9496,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>478</v>
+      </c>
+      <c r="F241" t="s">
         <v>479</v>
-      </c>
-      <c r="F241" t="s">
-        <v>480</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9537,10 +9525,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>480</v>
+      </c>
+      <c r="F242" t="s">
         <v>481</v>
-      </c>
-      <c r="F242" t="s">
-        <v>482</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9566,10 +9554,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>482</v>
+      </c>
+      <c r="F243" t="s">
         <v>483</v>
-      </c>
-      <c r="F243" t="s">
-        <v>484</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9595,10 +9583,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>484</v>
+      </c>
+      <c r="F244" t="s">
         <v>485</v>
-      </c>
-      <c r="F244" t="s">
-        <v>486</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9624,10 +9612,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>486</v>
+      </c>
+      <c r="F245" t="s">
         <v>487</v>
-      </c>
-      <c r="F245" t="s">
-        <v>488</v>
       </c>
       <c r="G245" t="n">
         <v>2</v>
@@ -9653,10 +9641,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>488</v>
+      </c>
+      <c r="F246" t="s">
         <v>489</v>
-      </c>
-      <c r="F246" t="s">
-        <v>490</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9682,10 +9670,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>490</v>
+      </c>
+      <c r="F247" t="s">
         <v>491</v>
-      </c>
-      <c r="F247" t="s">
-        <v>492</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9711,10 +9699,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>492</v>
+      </c>
+      <c r="F248" t="s">
         <v>493</v>
-      </c>
-      <c r="F248" t="s">
-        <v>494</v>
       </c>
       <c r="G248" t="n">
         <v>2</v>
@@ -9740,10 +9728,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>494</v>
+      </c>
+      <c r="F249" t="s">
         <v>495</v>
-      </c>
-      <c r="F249" t="s">
-        <v>496</v>
       </c>
       <c r="G249" t="n">
         <v>2</v>
@@ -9769,10 +9757,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>496</v>
+      </c>
+      <c r="F250" t="s">
         <v>497</v>
-      </c>
-      <c r="F250" t="s">
-        <v>498</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9798,10 +9786,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>498</v>
+      </c>
+      <c r="F251" t="s">
         <v>499</v>
-      </c>
-      <c r="F251" t="s">
-        <v>500</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9827,10 +9815,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>500</v>
+      </c>
+      <c r="F252" t="s">
         <v>501</v>
-      </c>
-      <c r="F252" t="s">
-        <v>502</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9856,10 +9844,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>502</v>
+      </c>
+      <c r="F253" t="s">
         <v>503</v>
-      </c>
-      <c r="F253" t="s">
-        <v>504</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9885,10 +9873,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>504</v>
+      </c>
+      <c r="F254" t="s">
         <v>505</v>
-      </c>
-      <c r="F254" t="s">
-        <v>506</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -9914,10 +9902,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>506</v>
+      </c>
+      <c r="F255" t="s">
         <v>507</v>
-      </c>
-      <c r="F255" t="s">
-        <v>508</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9943,10 +9931,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>508</v>
+      </c>
+      <c r="F256" t="s">
         <v>509</v>
-      </c>
-      <c r="F256" t="s">
-        <v>510</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9972,10 +9960,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>510</v>
+      </c>
+      <c r="F257" t="s">
         <v>511</v>
-      </c>
-      <c r="F257" t="s">
-        <v>512</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10001,10 +9989,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>512</v>
+      </c>
+      <c r="F258" t="s">
         <v>513</v>
-      </c>
-      <c r="F258" t="s">
-        <v>514</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10030,10 +10018,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>514</v>
+      </c>
+      <c r="F259" t="s">
         <v>515</v>
-      </c>
-      <c r="F259" t="s">
-        <v>516</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10059,10 +10047,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>516</v>
+      </c>
+      <c r="F260" t="s">
         <v>517</v>
-      </c>
-      <c r="F260" t="s">
-        <v>518</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10088,10 +10076,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>518</v>
+      </c>
+      <c r="F261" t="s">
         <v>519</v>
-      </c>
-      <c r="F261" t="s">
-        <v>520</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10117,10 +10105,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>520</v>
+      </c>
+      <c r="F262" t="s">
         <v>521</v>
-      </c>
-      <c r="F262" t="s">
-        <v>522</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10146,10 +10134,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>522</v>
+      </c>
+      <c r="F263" t="s">
         <v>523</v>
-      </c>
-      <c r="F263" t="s">
-        <v>524</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10175,10 +10163,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
+        <v>524</v>
+      </c>
+      <c r="F264" t="s">
         <v>525</v>
-      </c>
-      <c r="F264" t="s">
-        <v>526</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10204,10 +10192,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
+        <v>526</v>
+      </c>
+      <c r="F265" t="s">
         <v>527</v>
-      </c>
-      <c r="F265" t="s">
-        <v>528</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10233,10 +10221,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
+        <v>528</v>
+      </c>
+      <c r="F266" t="s">
         <v>529</v>
-      </c>
-      <c r="F266" t="s">
-        <v>530</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10262,10 +10250,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
+        <v>530</v>
+      </c>
+      <c r="F267" t="s">
         <v>531</v>
-      </c>
-      <c r="F267" t="s">
-        <v>532</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -10291,10 +10279,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
+        <v>532</v>
+      </c>
+      <c r="F268" t="s">
         <v>533</v>
-      </c>
-      <c r="F268" t="s">
-        <v>534</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10320,10 +10308,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
+        <v>534</v>
+      </c>
+      <c r="F269" t="s">
         <v>535</v>
-      </c>
-      <c r="F269" t="s">
-        <v>536</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10349,10 +10337,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
+        <v>536</v>
+      </c>
+      <c r="F270" t="s">
         <v>537</v>
-      </c>
-      <c r="F270" t="s">
-        <v>538</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -10378,10 +10366,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
+        <v>538</v>
+      </c>
+      <c r="F271" t="s">
         <v>539</v>
-      </c>
-      <c r="F271" t="s">
-        <v>540</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10407,10 +10395,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
+        <v>540</v>
+      </c>
+      <c r="F272" t="s">
         <v>541</v>
-      </c>
-      <c r="F272" t="s">
-        <v>542</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10436,10 +10424,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
+        <v>542</v>
+      </c>
+      <c r="F273" t="s">
         <v>543</v>
-      </c>
-      <c r="F273" t="s">
-        <v>544</v>
       </c>
       <c r="G273" t="n">
         <v>6</v>
@@ -10465,10 +10453,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
+        <v>544</v>
+      </c>
+      <c r="F274" t="s">
         <v>545</v>
-      </c>
-      <c r="F274" t="s">
-        <v>546</v>
       </c>
       <c r="G274" t="n">
         <v>7</v>
@@ -10494,10 +10482,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
+        <v>546</v>
+      </c>
+      <c r="F275" t="s">
         <v>547</v>
-      </c>
-      <c r="F275" t="s">
-        <v>548</v>
       </c>
       <c r="G275" t="n">
         <v>6</v>
@@ -10523,10 +10511,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
+        <v>548</v>
+      </c>
+      <c r="F276" t="s">
         <v>549</v>
-      </c>
-      <c r="F276" t="s">
-        <v>550</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10552,10 +10540,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
+        <v>550</v>
+      </c>
+      <c r="F277" t="s">
         <v>551</v>
-      </c>
-      <c r="F277" t="s">
-        <v>552</v>
       </c>
       <c r="G277" t="n">
         <v>3</v>
@@ -10581,10 +10569,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
+        <v>552</v>
+      </c>
+      <c r="F278" t="s">
         <v>553</v>
-      </c>
-      <c r="F278" t="s">
-        <v>554</v>
       </c>
       <c r="G278" t="n">
         <v>4</v>
@@ -10610,10 +10598,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
+        <v>554</v>
+      </c>
+      <c r="F279" t="s">
         <v>555</v>
-      </c>
-      <c r="F279" t="s">
-        <v>556</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10639,10 +10627,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
+        <v>556</v>
+      </c>
+      <c r="F280" t="s">
         <v>557</v>
-      </c>
-      <c r="F280" t="s">
-        <v>558</v>
       </c>
       <c r="G280" t="n">
         <v>15</v>
@@ -10668,10 +10656,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
+        <v>536</v>
+      </c>
+      <c r="F281" t="s">
         <v>537</v>
-      </c>
-      <c r="F281" t="s">
-        <v>538</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10697,10 +10685,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
+        <v>558</v>
+      </c>
+      <c r="F282" t="s">
         <v>559</v>
-      </c>
-      <c r="F282" t="s">
-        <v>560</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10726,10 +10714,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
+        <v>560</v>
+      </c>
+      <c r="F283" t="s">
         <v>561</v>
-      </c>
-      <c r="F283" t="s">
-        <v>562</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10755,10 +10743,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
+        <v>562</v>
+      </c>
+      <c r="F284" t="s">
         <v>563</v>
-      </c>
-      <c r="F284" t="s">
-        <v>564</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10784,10 +10772,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
+        <v>564</v>
+      </c>
+      <c r="F285" t="s">
         <v>565</v>
-      </c>
-      <c r="F285" t="s">
-        <v>566</v>
       </c>
       <c r="G285" t="n">
         <v>2</v>
@@ -10813,10 +10801,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
+        <v>566</v>
+      </c>
+      <c r="F286" t="s">
         <v>567</v>
-      </c>
-      <c r="F286" t="s">
-        <v>568</v>
       </c>
       <c r="G286" t="n">
         <v>11</v>
@@ -10842,10 +10830,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
+        <v>568</v>
+      </c>
+      <c r="F287" t="s">
         <v>569</v>
-      </c>
-      <c r="F287" t="s">
-        <v>570</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10871,10 +10859,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
+        <v>560</v>
+      </c>
+      <c r="F288" t="s">
         <v>561</v>
-      </c>
-      <c r="F288" t="s">
-        <v>562</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10900,10 +10888,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
+        <v>570</v>
+      </c>
+      <c r="F289" t="s">
         <v>571</v>
-      </c>
-      <c r="F289" t="s">
-        <v>572</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10929,10 +10917,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
+        <v>572</v>
+      </c>
+      <c r="F290" t="s">
         <v>573</v>
-      </c>
-      <c r="F290" t="s">
-        <v>574</v>
       </c>
       <c r="G290" t="n">
         <v>2</v>
@@ -10958,10 +10946,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
+        <v>574</v>
+      </c>
+      <c r="F291" t="s">
         <v>575</v>
-      </c>
-      <c r="F291" t="s">
-        <v>576</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10987,10 +10975,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
+        <v>576</v>
+      </c>
+      <c r="F292" t="s">
         <v>577</v>
-      </c>
-      <c r="F292" t="s">
-        <v>578</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11016,10 +11004,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
+        <v>578</v>
+      </c>
+      <c r="F293" t="s">
         <v>579</v>
-      </c>
-      <c r="F293" t="s">
-        <v>580</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11045,10 +11033,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
+        <v>580</v>
+      </c>
+      <c r="F294" t="s">
         <v>581</v>
-      </c>
-      <c r="F294" t="s">
-        <v>582</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11074,10 +11062,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
+        <v>582</v>
+      </c>
+      <c r="F295" t="s">
         <v>583</v>
-      </c>
-      <c r="F295" t="s">
-        <v>584</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11103,10 +11091,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
+        <v>584</v>
+      </c>
+      <c r="F296" t="s">
         <v>585</v>
-      </c>
-      <c r="F296" t="s">
-        <v>586</v>
       </c>
       <c r="G296" t="n">
         <v>2</v>
@@ -11132,10 +11120,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
+        <v>586</v>
+      </c>
+      <c r="F297" t="s">
         <v>587</v>
-      </c>
-      <c r="F297" t="s">
-        <v>588</v>
       </c>
       <c r="G297" t="n">
         <v>3</v>
@@ -11161,10 +11149,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
+        <v>588</v>
+      </c>
+      <c r="F298" t="s">
         <v>589</v>
-      </c>
-      <c r="F298" t="s">
-        <v>590</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11190,10 +11178,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F299" t="s">
-        <v>592</v>
+        <v>553</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11219,10 +11207,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F300" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G300" t="n">
         <v>4</v>
@@ -11248,10 +11236,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F301" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11277,10 +11265,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F302" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11306,10 +11294,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F303" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11335,10 +11323,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F304" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11364,10 +11352,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F305" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G305" t="n">
         <v>3</v>
@@ -11393,10 +11381,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F306" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11422,10 +11410,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F307" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11451,10 +11439,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F308" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11480,10 +11468,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F309" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11509,10 +11497,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F310" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11538,10 +11526,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F311" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11567,10 +11555,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F312" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G312" t="n">
         <v>78</v>
@@ -11596,10 +11584,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F313" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11625,10 +11613,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F314" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11654,10 +11642,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F315" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11683,10 +11671,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F316" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11712,10 +11700,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F317" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11741,10 +11729,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F318" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11770,10 +11758,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F319" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11799,10 +11787,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F320" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11828,10 +11816,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F321" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11857,10 +11845,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F322" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11886,10 +11874,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F323" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11915,10 +11903,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F324" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11944,10 +11932,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F325" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11973,10 +11961,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F326" t="s">
-        <v>646</v>
+        <v>600</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12002,10 +11990,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F327" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G327" t="n">
         <v>8</v>
@@ -12031,10 +12019,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F328" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12060,10 +12048,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F329" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G329" t="n">
         <v>2</v>
@@ -12089,10 +12077,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F330" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12118,10 +12106,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F331" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="G331" t="n">
         <v>146</v>
@@ -12147,10 +12135,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F332" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12176,10 +12164,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="F333" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12205,10 +12193,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F334" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12234,10 +12222,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F335" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12263,10 +12251,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F336" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="G336" t="n">
         <v>2</v>
@@ -12292,10 +12280,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F337" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12321,10 +12309,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F338" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12350,10 +12338,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F339" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12379,10 +12367,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F340" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G340" t="n">
         <v>2</v>
@@ -12408,10 +12396,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F341" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G341" t="n">
         <v>4</v>
@@ -12437,10 +12425,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F342" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G342" t="n">
         <v>2</v>
@@ -12466,10 +12454,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F343" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12495,10 +12483,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F344" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12524,10 +12512,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
+        <v>544</v>
+      </c>
+      <c r="F345" t="s">
         <v>545</v>
-      </c>
-      <c r="F345" t="s">
-        <v>546</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12553,10 +12541,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F346" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12582,10 +12570,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F347" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12611,10 +12599,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F348" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="G348" t="n">
         <v>2</v>
@@ -12640,10 +12628,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F349" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="G349" t="n">
         <v>8</v>
@@ -12669,10 +12657,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="F350" t="s">
-        <v>692</v>
+        <v>545</v>
       </c>
       <c r="G350" t="n">
         <v>6</v>
@@ -12698,10 +12686,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F351" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G351" t="n">
         <v>11</v>
@@ -12727,10 +12715,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F352" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12756,10 +12744,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F353" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12785,10 +12773,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F354" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12814,10 +12802,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F355" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G355" t="n">
         <v>7</v>
@@ -12843,10 +12831,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F356" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12872,10 +12860,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F357" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="G357" t="n">
         <v>3</v>
@@ -12901,10 +12889,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F358" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12930,10 +12918,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F359" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="G359" t="n">
         <v>3</v>
@@ -12959,10 +12947,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F360" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -12988,10 +12976,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F361" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13017,10 +13005,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F362" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13046,10 +13034,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="F363" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13075,10 +13063,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F364" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="G364" t="n">
         <v>6</v>
@@ -13104,10 +13092,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F365" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
